--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,18 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCHOOL_SUBJECT_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,6 +273,9 @@
   <si>
     <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
 </sst>
 </file>
@@ -971,7 +962,7 @@
     <tableColumn id="2" name="grade_id"/>
     <tableColumn id="3" name="cls_number"/>
     <tableColumn id="4" name="cls_name"/>
-    <tableColumn id="5" name="comment"/>
+    <tableColumn id="5" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -984,7 +975,7 @@
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="grade_year"/>
     <tableColumn id="3" name="grade_name"/>
-    <tableColumn id="4" name="comment"/>
+    <tableColumn id="4" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,7 +988,7 @@
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="subject_number"/>
     <tableColumn id="3" name="subject_name"/>
-    <tableColumn id="4" name="comment"/>
+    <tableColumn id="4" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,19 +1315,19 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1393,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
@@ -1898,13 +1889,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -1923,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1945,36 +1936,36 @@
   <sheetData>
     <row r="1" spans="1:19" s="10" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="G1" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="L1" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="Q1" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1983,40 +1974,40 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -2030,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2039,7 +2030,7 @@
         <v>2000</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2048,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2068,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2077,7 +2068,7 @@
         <v>2001</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2086,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2109,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2118,7 +2109,7 @@
         <v>2002</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -2127,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2150,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2159,7 +2150,7 @@
         <v>2003</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -2168,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2191,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2200,7 +2191,7 @@
         <v>2004</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -2209,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2232,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2241,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -2250,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2273,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2282,7 +2273,7 @@
         <v>2006</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -2291,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2314,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2323,7 +2314,7 @@
         <v>2007</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -2332,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2355,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2364,7 +2355,7 @@
         <v>2008</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -2378,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2387,7 +2378,7 @@
         <v>2009</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -2401,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2410,7 +2401,7 @@
         <v>2010</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -2424,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -83,199 +83,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cls_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cls_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOOL_CLASS_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOOL_SUBJECT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOOL_REL_CLS_SUBJECT_TEACHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname（用户名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>SCHOOL_GRADE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classs_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>grade_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHOOL_CLASS_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHOOL_GRADE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHOOL_SUBJECT_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cls_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHOOL_REL_CLS_SUBJECT_TEACHER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname（用户名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="grade_id"/>
-    <tableColumn id="3" name="cls_number"/>
-    <tableColumn id="4" name="cls_name"/>
+    <tableColumn id="3" name="classs_number"/>
+    <tableColumn id="4" name="class_name"/>
     <tableColumn id="5" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -973,7 +973,7 @@
   <autoFilter ref="G2:J30"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="grade_year"/>
+    <tableColumn id="2" name="grade_number"/>
     <tableColumn id="3" name="grade_name"/>
     <tableColumn id="4" name="remark"/>
   </tableColumns>
@@ -998,7 +998,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="Q2:S30" totalsRowShown="0" tableBorderDxfId="0">
   <autoFilter ref="Q2:S30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="cls_id"/>
+    <tableColumn id="1" name="class_id"/>
     <tableColumn id="4" name="subject_id"/>
     <tableColumn id="2" name="teacher_id"/>
   </tableColumns>
@@ -1315,19 +1315,19 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
@@ -1889,13 +1889,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1936,78 +1936,78 @@
   <sheetData>
     <row r="1" spans="1:19" s="10" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="G1" s="11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="L1" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="Q1" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" t="s">
-        <v>59</v>
-      </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>2000</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>2001</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2109,7 +2109,7 @@
         <v>2002</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -2118,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2150,7 +2150,7 @@
         <v>2003</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2191,7 +2191,7 @@
         <v>2004</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -2200,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2232,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -2241,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>2006</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -2282,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2314,7 +2314,7 @@
         <v>2007</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -2323,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2355,7 +2355,7 @@
         <v>2008</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2378,7 +2378,7 @@
         <v>2009</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -2392,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2401,7 +2401,7 @@
         <v>2010</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -2415,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户基础信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name(名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_type(用户类型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id(内部ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>home_phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid(用户ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,30 +211,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHOOL_REL_CLS_SUBJECT_TEACHER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subject_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nickname（用户名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
@@ -275,6 +239,106 @@
   </si>
   <si>
     <t>grade_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_semester_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_class_extern_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_extern_model_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,10 +484,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -438,6 +501,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -452,38 +517,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.34998626667073579"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
+      <border outline="0">
+        <top style="thick">
+          <color theme="4"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -904,17 +941,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I22" totalsRowShown="0">
-  <autoFilter ref="A1:I22"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M22" totalsRowShown="0">
+  <autoFilter ref="A1:M22"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="ID(内部ID)"/>
-    <tableColumn id="2" name="nickname（用户名）"/>
-    <tableColumn id="12" name="name(名字)"/>
-    <tableColumn id="3" name="sex"/>
-    <tableColumn id="4" name="qq"/>
-    <tableColumn id="13" name="score"/>
+    <tableColumn id="2" name="username"/>
+    <tableColumn id="12" name="password"/>
+    <tableColumn id="3" name="true_name"/>
+    <tableColumn id="4" name="email"/>
     <tableColumn id="5" name="mobile"/>
-    <tableColumn id="11" name="user_type(用户类型)"/>
+    <tableColumn id="6" name="reg_time"/>
+    <tableColumn id="7" name="reg_ip"/>
+    <tableColumn id="8" name="last_login_time"/>
+    <tableColumn id="9" name="last_login_ip"/>
+    <tableColumn id="11" name="update_time"/>
+    <tableColumn id="13" name="user_extern_model_id"/>
     <tableColumn id="10" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -922,20 +963,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:K36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:K36"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="id(内部ID)" dataDxfId="11"/>
-    <tableColumn id="2" name="uid(用户ID)" dataDxfId="10"/>
-    <tableColumn id="3" name="stunder_id(学籍号)" dataDxfId="9"/>
-    <tableColumn id="6" name="class_id" dataDxfId="8"/>
-    <tableColumn id="7" name="status" dataDxfId="7"/>
-    <tableColumn id="12" name="dad_name" dataDxfId="6"/>
-    <tableColumn id="13" name="dad_mobile" dataDxfId="5"/>
-    <tableColumn id="14" name="mom_name" dataDxfId="4"/>
-    <tableColumn id="15" name="mom_mobile" dataDxfId="3"/>
-    <tableColumn id="11" name="home_phone" dataDxfId="2"/>
-    <tableColumn id="10" name="address" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:J36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:J36"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="11"/>
+    <tableColumn id="3" name="stunder_id(学籍号)" dataDxfId="10"/>
+    <tableColumn id="6" name="class_id" dataDxfId="9"/>
+    <tableColumn id="7" name="status" dataDxfId="8"/>
+    <tableColumn id="12" name="dad_name" dataDxfId="7"/>
+    <tableColumn id="13" name="dad_mobile" dataDxfId="6"/>
+    <tableColumn id="14" name="mom_name" dataDxfId="5"/>
+    <tableColumn id="15" name="mom_mobile" dataDxfId="4"/>
+    <tableColumn id="11" name="home_phone" dataDxfId="3"/>
+    <tableColumn id="10" name="address" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,14 +1035,31 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="Q2:S30" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="Q2:S30"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="Q2:U30" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="Q2:U30"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="class_id"/>
     <tableColumn id="4" name="subject_id"/>
-    <tableColumn id="2" name="teacher_id"/>
+    <tableColumn id="3" name="semester_id"/>
+    <tableColumn id="6" name="teacher_id"/>
+    <tableColumn id="5" name="master_flag"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="W2:AB30" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="W2:AB30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="7" name="semester_year"/>
+    <tableColumn id="9" name="semester_status"/>
+    <tableColumn id="2" name="start"/>
+    <tableColumn id="3" name="end"/>
+    <tableColumn id="4" name="remark"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1293,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1304,38 +1361,50 @@
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
       </c>
       <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1351,91 +1420,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="28.25" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="28.25" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1445,23 +1506,21 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1471,23 +1530,21 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1497,23 +1554,21 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1523,23 +1578,21 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1549,23 +1602,21 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1575,23 +1626,21 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1601,23 +1650,21 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1627,23 +1674,21 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1653,23 +1698,21 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1679,23 +1722,21 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1705,23 +1746,21 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1731,23 +1770,21 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1757,23 +1794,21 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1783,23 +1818,21 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1809,23 +1842,21 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1835,23 +1866,21 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1861,7 +1890,6 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1889,16 +1917,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B14"/>
+    <sheetView showWhiteSpace="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,87 +1958,124 @@
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="9.75" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="18" width="17.75" customWidth="1"/>
-    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="18" max="21" width="17.75" customWidth="1"/>
+    <col min="24" max="24" width="16.25" customWidth="1"/>
+    <col min="25" max="25" width="19.625" customWidth="1"/>
+    <col min="26" max="27" width="15.5" customWidth="1"/>
+    <col min="28" max="28" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="W1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="L1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="AA2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2021,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2030,7 +2095,7 @@
         <v>2000</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2039,16 +2104,40 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>100001</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>40057</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>40208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2059,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2068,7 +2157,7 @@
         <v>2001</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2077,19 +2166,40 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>100002</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>40229</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>40369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2100,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2109,7 +2219,7 @@
         <v>2002</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -2118,19 +2228,40 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>100003</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>40422</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>40573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2141,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2150,7 +2281,7 @@
         <v>2003</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -2159,19 +2290,40 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>100004</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>40594</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>40734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2182,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2191,7 +2343,7 @@
         <v>2004</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -2200,19 +2352,27 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>100005</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2223,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2232,7 +2392,7 @@
         <v>2005</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -2241,19 +2401,25 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>100006</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2264,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2273,7 +2439,7 @@
         <v>2006</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -2282,19 +2448,25 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>100007</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2305,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2314,7 +2486,7 @@
         <v>2007</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -2323,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2332,10 +2504,16 @@
         <v>7</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>100008</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2346,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2355,10 +2533,25 @@
         <v>2008</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>100001</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2369,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2378,10 +2571,25 @@
         <v>2009</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>100002</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2392,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2401,10 +2609,25 @@
         <v>2010</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>100003</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2415,24 +2638,109 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>100004</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>100005</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>100006</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>100007</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>100008</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="用户基础信息表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="SCHOOL_TEACHER_INFO" sheetId="4" r:id="rId3"/>
     <sheet name="CLASS_GRADE_SUBJECT_INFO" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,30 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2000级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHOOL_CLASS_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subject_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,186 +131,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>SCHOOL_GRADE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classs_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_semester_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_class_extern_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_extern_model_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SCHOOL_SUBJECT_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>SCHOOL_GRADE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classs_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_semester_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009-2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009-2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010-2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011-2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_class_extern_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_extern_model_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>2009级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级三班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级四班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级五班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级六班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级三班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级四班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级五班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级六班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOOL_CLASS_GRADE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,14 +522,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -999,7 +1026,7 @@
   <autoFilter ref="A2:E30"/>
   <tableColumns count="5">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="grade_id"/>
+    <tableColumn id="2" name="cate_id"/>
     <tableColumn id="3" name="classs_number"/>
     <tableColumn id="4" name="class_name"/>
     <tableColumn id="5" name="remark"/>
@@ -1049,14 +1076,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="W2:AB30" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="W2:AB30"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="W2:AC30" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="W2:AC30"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="7" name="semester_year"/>
     <tableColumn id="9" name="semester_status"/>
     <tableColumn id="2" name="start"/>
     <tableColumn id="3" name="end"/>
+    <tableColumn id="5" name="列1"/>
     <tableColumn id="4" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1352,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1372,37 +1400,37 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -1422,7 +1450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1441,13 +1471,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -1906,24 +1936,24 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1940,15 +1970,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="5" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="19.625" customWidth="1"/>
@@ -1958,135 +1988,138 @@
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="9.75" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="21" width="17.75" customWidth="1"/>
+    <col min="18" max="18" width="17.75" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="21" width="17.75" customWidth="1"/>
     <col min="24" max="24" width="16.25" customWidth="1"/>
     <col min="25" max="25" width="19.625" customWidth="1"/>
-    <col min="26" max="27" width="15.5" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="26" max="28" width="15.5" customWidth="1"/>
+    <col min="29" max="29" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="L1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="Q1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="W1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-    </row>
-    <row r="2" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="W1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+    </row>
+    <row r="2" spans="1:29" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>1</v>
+        <v>20091</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2095,7 +2128,7 @@
         <v>2000</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2104,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2125,30 +2158,28 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="10">
         <v>40057</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="10">
         <v>40208</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
-        <v>2</v>
+        <v>20092</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2157,7 +2188,7 @@
         <v>2001</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2166,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2187,30 +2218,28 @@
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="10">
         <v>40229</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="10">
         <v>40369</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB4" s="10"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
-        <v>3</v>
+        <v>20093</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2219,7 +2248,7 @@
         <v>2002</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -2228,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2249,30 +2278,28 @@
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="10">
         <v>40422</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="10">
         <v>40573</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
-        <v>4</v>
+        <v>20094</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2281,7 +2308,7 @@
         <v>2003</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -2290,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2311,30 +2338,28 @@
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="10">
         <v>40594</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="10">
         <v>40734</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB6" s="10"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
-        <v>5</v>
+        <v>20095</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2343,7 +2368,7 @@
         <v>2004</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -2352,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2369,21 +2394,19 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>6</v>
+        <v>20096</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2392,7 +2415,7 @@
         <v>2005</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -2401,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2419,18 +2442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
       <c r="C9">
-        <v>1</v>
+        <v>20101</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2439,7 +2459,7 @@
         <v>2006</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -2448,7 +2468,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2466,18 +2486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
       <c r="C10">
-        <v>2</v>
+        <v>20102</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2486,7 +2503,7 @@
         <v>2007</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -2495,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2513,18 +2530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
       <c r="C11">
-        <v>3</v>
+        <v>20103</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2533,7 +2547,7 @@
         <v>2008</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -2551,18 +2565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
       <c r="C12">
-        <v>4</v>
+        <v>20104</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2571,7 +2582,7 @@
         <v>2009</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2589,18 +2600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
       <c r="C13">
-        <v>5</v>
+        <v>20105</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2609,7 +2617,7 @@
         <v>2010</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2627,18 +2635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
       <c r="C14">
-        <v>6</v>
+        <v>20106</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -2656,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="Q15">
         <v>1</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="Q16">
         <v>1</v>
       </c>
@@ -2730,7 +2735,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户基础信息表" sheetId="1" r:id="rId1"/>
@@ -210,95 +210,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school_semester_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_class_extern_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_extern_model_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOOL_SUBJECT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级三班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级四班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级五班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009级六班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级三班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级四班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级五班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级六班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOOL_CLASS_GRADE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009-2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009-2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010-2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011-2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_class_extern_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_extern_model_id</t>
+    <t>tearm_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tearm_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_term_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,66 +354,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHOOL_SUBJECT_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>2009级一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009级二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009级三班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009级四班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009级五班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009级六班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级三班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级四班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级五班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010级六班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHOOL_CLASS_GRADE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate_id</t>
+    <t>support_subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_static_grade_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,6 +529,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1076,15 +1080,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="W2:AC30" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="W2:AC30"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="W2:AB30" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="W2:AB30"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="7" name="semester_year"/>
-    <tableColumn id="9" name="semester_status"/>
+    <tableColumn id="7" name="tearm_year"/>
+    <tableColumn id="9" name="tearm_order"/>
     <tableColumn id="2" name="start"/>
     <tableColumn id="3" name="end"/>
-    <tableColumn id="5" name="列1"/>
     <tableColumn id="4" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1380,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1400,37 +1403,37 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -1471,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
@@ -1970,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1993,13 +1996,13 @@
     <col min="20" max="21" width="17.75" customWidth="1"/>
     <col min="24" max="24" width="16.25" customWidth="1"/>
     <col min="25" max="25" width="19.625" customWidth="1"/>
-    <col min="26" max="28" width="15.5" customWidth="1"/>
-    <col min="29" max="29" width="12.75" customWidth="1"/>
+    <col min="26" max="27" width="15.5" customWidth="1"/>
+    <col min="28" max="28" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2012,34 +2015,33 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="L1" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="Q1" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="W1" s="13" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-    </row>
-    <row r="2" spans="1:29" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2081,37 +2083,34 @@
         <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
         <v>47</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>20091</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2157,8 +2156,8 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
-        <v>54</v>
+      <c r="X3">
+        <v>2009</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -2169,9 +2168,8 @@
       <c r="AA3" s="10">
         <v>40208</v>
       </c>
-      <c r="AB3" s="10"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>20092</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2217,8 +2215,8 @@
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" t="s">
-        <v>53</v>
+      <c r="X4">
+        <v>2009</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -2229,9 +2227,8 @@
       <c r="AA4" s="10">
         <v>40369</v>
       </c>
-      <c r="AB4" s="10"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>20093</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2277,8 +2274,8 @@
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" t="s">
-        <v>55</v>
+      <c r="X5">
+        <v>2011</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -2289,9 +2286,8 @@
       <c r="AA5" s="10">
         <v>40573</v>
       </c>
-      <c r="AB5" s="10"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2299,7 +2295,7 @@
         <v>20094</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2337,8 +2333,8 @@
       <c r="W6">
         <v>4</v>
       </c>
-      <c r="X6" t="s">
-        <v>56</v>
+      <c r="X6">
+        <v>2011</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -2349,9 +2345,8 @@
       <c r="AA6" s="10">
         <v>40734</v>
       </c>
-      <c r="AB6" s="10"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>20095</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2396,9 +2391,8 @@
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2406,7 +2400,7 @@
         <v>20096</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2442,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2450,7 +2444,7 @@
         <v>20101</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2486,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2494,7 +2488,7 @@
         <v>20102</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2530,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2538,7 +2532,7 @@
         <v>20103</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2565,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2573,7 +2567,7 @@
         <v>20104</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2600,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>20105</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2635,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2643,7 +2637,7 @@
         <v>20106</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -2661,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q15">
         <v>1</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q16">
         <v>1</v>
       </c>
@@ -2729,13 +2723,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -12,12 +12,12 @@
     <sheet name="SCHOOL_TEACHER_INFO" sheetId="4" r:id="rId3"/>
     <sheet name="CLASS_GRADE_SUBJECT_INFO" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,18 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_class_extern_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>master_flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tearm_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,23 +334,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>support_subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_static_grade_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid_time</t>
+    <t>term_id</t>
+  </si>
+  <si>
+    <t>school_class_teach_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach_star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exce_time_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exce_time_end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,6 +393,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,23 +545,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thick">
@@ -994,19 +1022,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:J36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:J36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:J36"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="11"/>
-    <tableColumn id="3" name="stunder_id(学籍号)" dataDxfId="10"/>
-    <tableColumn id="6" name="class_id" dataDxfId="9"/>
-    <tableColumn id="7" name="status" dataDxfId="8"/>
-    <tableColumn id="12" name="dad_name" dataDxfId="7"/>
-    <tableColumn id="13" name="dad_mobile" dataDxfId="6"/>
-    <tableColumn id="14" name="mom_name" dataDxfId="5"/>
-    <tableColumn id="15" name="mom_mobile" dataDxfId="4"/>
-    <tableColumn id="11" name="home_phone" dataDxfId="3"/>
-    <tableColumn id="10" name="address" dataDxfId="2"/>
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="3" name="stunder_id(学籍号)" dataDxfId="12"/>
+    <tableColumn id="6" name="class_id" dataDxfId="11"/>
+    <tableColumn id="7" name="status" dataDxfId="10"/>
+    <tableColumn id="12" name="dad_name" dataDxfId="9"/>
+    <tableColumn id="13" name="dad_mobile" dataDxfId="8"/>
+    <tableColumn id="14" name="mom_name" dataDxfId="7"/>
+    <tableColumn id="15" name="mom_mobile" dataDxfId="6"/>
+    <tableColumn id="11" name="home_phone" dataDxfId="5"/>
+    <tableColumn id="10" name="address" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1066,12 +1094,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="Q2:U30" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="Q2:U30"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="Q2:W30" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="Q2:W30"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="class_id"/>
     <tableColumn id="4" name="subject_id"/>
-    <tableColumn id="3" name="semester_id"/>
+    <tableColumn id="3" name="term_id"/>
+    <tableColumn id="2" name="teach_star"/>
+    <tableColumn id="7" name="teach_end"/>
     <tableColumn id="6" name="teacher_id"/>
     <tableColumn id="5" name="master_flag"/>
   </tableColumns>
@@ -1080,14 +1110,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="W2:AB30" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="W2:AB30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="Y2:AD30" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="Y2:AD30"/>
   <tableColumns count="6">
     <tableColumn id="1" name="id"/>
     <tableColumn id="7" name="tearm_year"/>
     <tableColumn id="9" name="tearm_order"/>
-    <tableColumn id="2" name="start"/>
-    <tableColumn id="3" name="end"/>
+    <tableColumn id="2" name="exce_time_start" dataDxfId="1"/>
+    <tableColumn id="3" name="exce_time_end" dataDxfId="0"/>
     <tableColumn id="4" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1384,7 +1414,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,37 +1433,37 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -1474,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
@@ -1973,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1992,17 +2022,18 @@
     <col min="15" max="15" width="9.75" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
     <col min="18" max="18" width="17.75" customWidth="1"/>
-    <col min="19" max="19" width="15.25" customWidth="1"/>
-    <col min="20" max="21" width="17.75" customWidth="1"/>
-    <col min="24" max="24" width="16.25" customWidth="1"/>
-    <col min="25" max="25" width="19.625" customWidth="1"/>
-    <col min="26" max="27" width="15.5" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="19" max="21" width="15.25" customWidth="1"/>
+    <col min="22" max="23" width="17.75" customWidth="1"/>
+    <col min="26" max="26" width="16.25" customWidth="1"/>
+    <col min="27" max="27" width="19.625" customWidth="1"/>
+    <col min="28" max="28" width="18.375" customWidth="1"/>
+    <col min="29" max="29" width="15.5" customWidth="1"/>
+    <col min="30" max="30" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2015,33 +2046,35 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="L1" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="Q1" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
-      <c r="W1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="Y1" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
-    </row>
-    <row r="2" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+    </row>
+    <row r="2" spans="1:30" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2083,34 +2116,40 @@
         <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
       <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
       <c r="Z2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2118,7 +2157,7 @@
         <v>20091</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2145,31 +2184,31 @@
         <v>1</v>
       </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>100001</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>100001</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>2009</v>
-      </c>
       <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>40057</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>40208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>40422</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>40573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2177,7 +2216,7 @@
         <v>20092</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2204,31 +2243,31 @@
         <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>100002</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="X4">
-        <v>2009</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="10">
+      <c r="Z4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" s="14">
         <v>40229</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AC4" s="14">
         <v>40369</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2236,7 +2275,7 @@
         <v>20093</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2263,31 +2302,31 @@
         <v>3</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>100003</v>
+      </c>
+      <c r="W5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>100003</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="W5">
+      <c r="Y5">
         <v>3</v>
       </c>
-      <c r="X5">
-        <v>2011</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10">
+      <c r="Z5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="14">
         <v>40422</v>
       </c>
-      <c r="AA5" s="10">
-        <v>40573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC5" s="14">
+        <v>40558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2295,7 +2334,7 @@
         <v>20094</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2322,31 +2361,31 @@
         <v>4</v>
       </c>
       <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>100004</v>
+      </c>
+      <c r="W6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>100004</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="Y6">
         <v>4</v>
       </c>
-      <c r="X6">
-        <v>2011</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>40594</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>40734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>40590</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>41096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2354,7 +2393,7 @@
         <v>20095</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2381,18 +2420,31 @@
         <v>5</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>100005</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>100005</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>41153</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>41299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2400,7 +2452,7 @@
         <v>20096</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2427,16 +2479,31 @@
         <v>6</v>
       </c>
       <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>100006</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>100006</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>41325</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>41459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2444,7 +2511,7 @@
         <v>20101</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2471,16 +2538,31 @@
         <v>7</v>
       </c>
       <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>100007</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>100007</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>41518</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>41661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2488,7 +2570,7 @@
         <v>20102</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2515,16 +2597,31 @@
         <v>7</v>
       </c>
       <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>100008</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>100008</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>41692</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2532,7 +2629,7 @@
         <v>20103</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2550,16 +2647,31 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="V11">
         <v>100001</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>41883</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2567,7 +2679,7 @@
         <v>20104</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -2585,16 +2697,31 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="V12">
         <v>100002</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>42064</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2602,7 +2729,7 @@
         <v>20105</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -2620,16 +2747,18 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="V13">
         <v>100003</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2637,7 +2766,7 @@
         <v>20106</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -2646,16 +2775,18 @@
         <v>4</v>
       </c>
       <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="V14">
         <v>100004</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="Q15">
         <v>1</v>
       </c>
@@ -2663,16 +2794,18 @@
         <v>5</v>
       </c>
       <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="V15">
         <v>100005</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="Q16">
         <v>1</v>
       </c>
@@ -2680,16 +2813,18 @@
         <v>6</v>
       </c>
       <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>100006</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+    </row>
+    <row r="17" spans="17:29" x14ac:dyDescent="0.15">
       <c r="Q17">
         <v>1</v>
       </c>
@@ -2697,16 +2832,18 @@
         <v>7</v>
       </c>
       <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>100007</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="17:21" x14ac:dyDescent="0.15">
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+    </row>
+    <row r="18" spans="17:29" x14ac:dyDescent="0.15">
       <c r="Q18">
         <v>1</v>
       </c>
@@ -2714,44 +2851,78 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>100008</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+    </row>
+    <row r="19" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+    </row>
+    <row r="20" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+    </row>
+    <row r="21" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+    </row>
+    <row r="22" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+    </row>
+    <row r="23" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+    </row>
+    <row r="24" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+    </row>
+    <row r="25" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+    </row>
+    <row r="26" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+    </row>
+    <row r="27" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+    </row>
+    <row r="28" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+    </row>
+    <row r="29" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+    </row>
+    <row r="30" spans="17:29" x14ac:dyDescent="0.15">
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="Q1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -334,58 +334,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>term_id</t>
+    <t>teach_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exce_time_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exce_time_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>school_class_teach_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teach_star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teach_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上学期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下学期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010-2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010-2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011-2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013-2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exce_time_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exce_time_end</t>
+    <t>term_statrt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach_start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +395,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -546,16 +547,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -563,10 +564,10 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1099,8 +1100,8 @@
   <tableColumns count="7">
     <tableColumn id="1" name="class_id"/>
     <tableColumn id="4" name="subject_id"/>
-    <tableColumn id="3" name="term_id"/>
-    <tableColumn id="2" name="teach_star"/>
+    <tableColumn id="3" name="term_statrt_id"/>
+    <tableColumn id="2" name="teach_start"/>
     <tableColumn id="7" name="teach_end"/>
     <tableColumn id="6" name="teacher_id"/>
     <tableColumn id="5" name="master_flag"/>
@@ -1484,7 +1485,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2006,7 +2007,7 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2022,7 +2023,9 @@
     <col min="15" max="15" width="9.75" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
     <col min="18" max="18" width="17.75" customWidth="1"/>
-    <col min="19" max="21" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="30.75" customWidth="1"/>
     <col min="22" max="23" width="17.75" customWidth="1"/>
     <col min="26" max="26" width="16.25" customWidth="1"/>
     <col min="27" max="27" width="19.625" customWidth="1"/>
@@ -2032,42 +2035,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="Q1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="Q1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="Y1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
     </row>
     <row r="2" spans="1:30" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -2116,13 +2119,13 @@
         <v>40</v>
       </c>
       <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
         <v>79</v>
-      </c>
-      <c r="T2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s">
-        <v>82</v>
       </c>
       <c r="V2" t="s">
         <v>36</v>
@@ -2140,10 +2143,10 @@
         <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AD2" t="s">
         <v>48</v>
@@ -2196,15 +2199,15 @@
         <v>1</v>
       </c>
       <c r="Z3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="11">
         <v>40422</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="11">
         <v>40573</v>
       </c>
     </row>
@@ -2255,15 +2258,15 @@
         <v>2</v>
       </c>
       <c r="Z4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" s="14">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="11">
         <v>40229</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="11">
         <v>40369</v>
       </c>
     </row>
@@ -2314,15 +2317,15 @@
         <v>3</v>
       </c>
       <c r="Z5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB5" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="11">
         <v>40422</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="11">
         <v>40558</v>
       </c>
     </row>
@@ -2373,15 +2376,15 @@
         <v>4</v>
       </c>
       <c r="Z6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB6" s="14">
+        <v>81</v>
+      </c>
+      <c r="AB6" s="11">
         <v>40590</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="11">
         <v>41096</v>
       </c>
     </row>
@@ -2432,15 +2435,15 @@
         <v>5</v>
       </c>
       <c r="Z7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB7" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="11">
         <v>41153</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="11">
         <v>41299</v>
       </c>
     </row>
@@ -2491,15 +2494,15 @@
         <v>6</v>
       </c>
       <c r="Z8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" s="14">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="11">
         <v>41325</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="11">
         <v>41459</v>
       </c>
     </row>
@@ -2550,15 +2553,15 @@
         <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB9" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="11">
         <v>41518</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="11">
         <v>41661</v>
       </c>
     </row>
@@ -2609,15 +2612,15 @@
         <v>8</v>
       </c>
       <c r="Z10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB10" s="14">
+        <v>81</v>
+      </c>
+      <c r="AB10" s="11">
         <v>41692</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="11">
         <v>41821</v>
       </c>
     </row>
@@ -2659,15 +2662,15 @@
         <v>9</v>
       </c>
       <c r="Z11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB11" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="11">
         <v>41883</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="11">
         <v>42036</v>
       </c>
     </row>
@@ -2709,15 +2712,15 @@
         <v>10</v>
       </c>
       <c r="Z12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB12" s="14">
+        <v>81</v>
+      </c>
+      <c r="AB12" s="11">
         <v>42064</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AC12" s="11">
         <v>42193</v>
       </c>
     </row>
@@ -2755,8 +2758,8 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -2783,8 +2786,8 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="Q15">
@@ -2802,8 +2805,8 @@
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="Q16">
@@ -2821,8 +2824,8 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="17:29" x14ac:dyDescent="0.15">
       <c r="Q17">
@@ -2840,8 +2843,8 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
     </row>
     <row r="18" spans="17:29" x14ac:dyDescent="0.15">
       <c r="Q18">
@@ -2859,61 +2862,61 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
     </row>
     <row r="19" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
     </row>
     <row r="20" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
     </row>
     <row r="21" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
     </row>
     <row r="22" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
     </row>
     <row r="25" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
     </row>
     <row r="26" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
     </row>
     <row r="27" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
     </row>
     <row r="28" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
     </row>
     <row r="29" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
     </row>
     <row r="30" spans="17:29" x14ac:dyDescent="0.15">
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Doc/Design/e朗朗项目数据库设计.xlsx
+++ b/Doc/Design/e朗朗项目数据库设计.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户基础信息表" sheetId="1" r:id="rId1"/>
-    <sheet name="SCHOOL_STUDENT_INFO" sheetId="2" r:id="rId2"/>
-    <sheet name="SCHOOL_TEACHER_INFO" sheetId="4" r:id="rId3"/>
-    <sheet name="CLASS_GRADE_SUBJECT_INFO" sheetId="3" r:id="rId4"/>
+    <sheet name="学校年级班信息" sheetId="7" r:id="rId2"/>
+    <sheet name="SCHOOL_STUDENT_INFO" sheetId="2" r:id="rId3"/>
+    <sheet name="SCHOOL_TEACHER_INFO" sheetId="4" r:id="rId4"/>
+    <sheet name="CLASS_GRADE_SUBJECT_INFO" sheetId="3" r:id="rId5"/>
+    <sheet name="微信" sheetId="5" r:id="rId6"/>
+    <sheet name="作业" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +390,136 @@
   </si>
   <si>
     <t>teach_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onethink_follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onethink_family_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_pin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEACHER_REL_CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUDENT_REL_CLASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +562,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,13 +702,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1022,6 +1185,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="I2:K26" totalsRowShown="0">
+  <autoFilter ref="I2:K26"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="master_id"/>
+    <tableColumn id="2" name="member_id"/>
+    <tableColumn id="3" name="mTime"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:J36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:J36"/>
@@ -1122,6 +1297,22 @@
     <tableColumn id="4" name="remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表10" displayName="表10" ref="A2:G26" totalsRowShown="0">
+  <autoFilter ref="A2:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="token"/>
+    <tableColumn id="3" name="openid"/>
+    <tableColumn id="4" name="teacher_pin2"/>
+    <tableColumn id="5" name="subscribe_time"/>
+    <tableColumn id="6" name="mobile"/>
+    <tableColumn id="7" name="auth_code"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1415,7 +1606,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1481,6 +1672,833 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="10" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2009</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2009</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2009</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2009</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2010</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>2010</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -1965,12 +2983,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2002,12 +3020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12:AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2035,42 +3053,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="9" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="Q1" s="12" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="Q1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="Y1" s="12" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:30" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -2938,4 +3956,124 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="I1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>